--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\PROJETOS\APP\Códigos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A84B6C-AFC6-4B6D-A22B-FF28C9A7D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CDF411-EE18-4373-B5B3-403511C0B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$C$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="179">
   <si>
     <t>Complemento</t>
   </si>
@@ -323,9 +323,6 @@
     <t>SACO PLASTICO - 60X90</t>
   </si>
   <si>
-    <t>SACOLA PLASTICA - 15CMX20CM</t>
-  </si>
-  <si>
     <t>S050017</t>
   </si>
   <si>
@@ -473,18 +470,6 @@
     <t>S110018</t>
   </si>
   <si>
-    <t>FITA CETIM - AMARELO</t>
-  </si>
-  <si>
-    <t>S150203</t>
-  </si>
-  <si>
-    <t>FITA CETIM - AZUL</t>
-  </si>
-  <si>
-    <t>FITA CETIM - ROSA</t>
-  </si>
-  <si>
     <t>FITA DUPLA FACE - UNICA</t>
   </si>
   <si>
@@ -558,6 +543,39 @@
   </si>
   <si>
     <t>S110037</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
+  </si>
+  <si>
+    <t>S050008</t>
+  </si>
+  <si>
+    <t>UM.</t>
+  </si>
+  <si>
+    <t>CX</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PC C/10</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>PC C/8</t>
+  </si>
+  <si>
+    <t>PC C/100</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>SACOLA PLASTICA - 25X30</t>
   </si>
 </sst>
 </file>
@@ -640,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -655,6 +673,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -994,1072 +1015,1327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="D4" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="D5" s="4">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4">
+      <c r="D9" s="4">
         <v>809</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D10" s="4">
         <v>1046</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="D11" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="4">
+      <c r="D12" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="4">
+      <c r="D13" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="4">
+      <c r="D14" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4">
+      <c r="D15" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4">
+      <c r="D19" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4">
+      <c r="D20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="4">
+      <c r="D22" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="4">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="4">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="B24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="4">
+        <v>172</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="4">
         <v>903</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="4">
+      <c r="D25" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="4">
+      <c r="D26" s="4">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="D27" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="4">
+      <c r="D28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="4">
+      <c r="D30" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="4">
+      <c r="D31" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="4">
+      <c r="D34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="4">
+      <c r="D35" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="4">
+      <c r="D36" s="4">
         <v>899</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="4">
+      <c r="D37" s="4">
         <v>896</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="4">
+      <c r="D38" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
         <v>898</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="4">
+      <c r="D40" s="4">
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="4">
+      <c r="D41" s="4">
         <v>167</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="D42" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="4">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="B57" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="B58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B45" s="4" t="s">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B61" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="4">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D67" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="4">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="4">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="4">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D81" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D82" s="4">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D83" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="4">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C50" s="4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D92" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="4">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="4">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C65" s="4">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="4">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C67" s="4">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="4">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="4">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="4">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" s="4">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" s="4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C74" s="4">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C75" s="4">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C77" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C80" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C81" s="4">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="4">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C84" s="4">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C85" s="4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" s="4">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C87" s="4">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="4">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C94" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C66" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C66">
-      <sortCondition ref="A1:A66"/>
+  <autoFilter ref="A1:D64" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
+      <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$D1&lt;&gt;""</formula>
+  <conditionalFormatting sqref="A1:D1">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C94">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="A2:D92">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="C21:C25 C6:C16 C26:C94" numberStoredAsText="1"/>
+    <ignoredError sqref="D6:D16 D44:D92 D21:D42" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CDF411-EE18-4373-B5B3-403511C0B958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D28629B-C232-4B70-B3A2-CEE477F06315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="178">
   <si>
     <t>Complemento</t>
   </si>
@@ -419,15 +419,6 @@
     <t>1</t>
   </si>
   <si>
-    <t>BAND-AID - 500 UND</t>
-  </si>
-  <si>
-    <t>S150156</t>
-  </si>
-  <si>
-    <t>874</t>
-  </si>
-  <si>
     <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
   </si>
   <si>
@@ -576,6 +567,12 @@
   </si>
   <si>
     <t>SACOLA PLASTICA - 25X30</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
+  </si>
+  <si>
+    <t>S150189</t>
   </si>
 </sst>
 </file>
@@ -683,7 +680,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -719,9 +725,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -759,7 +765,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -865,7 +871,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1007,7 +1013,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1017,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1048,7 +1054,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>102</v>
@@ -1062,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1076,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1090,7 +1096,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>100</v>
@@ -1104,7 +1110,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>121</v>
@@ -1118,7 +1124,7 @@
         <v>123</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>124</v>
@@ -1129,254 +1135,254 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>128</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="4">
-        <v>1046</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>125</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>125</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="D22" s="4">
-        <v>52</v>
+        <v>904</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="4">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="D24" s="4">
-        <v>903</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="4">
-        <v>101</v>
+        <v>177</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1384,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1395,13 +1401,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1412,7 +1418,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1423,13 +1429,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>125</v>
@@ -1440,7 +1446,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1454,7 +1460,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1465,27 +1471,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>125</v>
@@ -1496,7 +1502,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>38</v>
@@ -1510,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
@@ -1524,7 +1530,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1538,7 +1544,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>42</v>
@@ -1552,7 +1558,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
@@ -1566,7 +1572,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1580,7 +1586,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1594,7 +1600,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>47</v>
@@ -1605,13 +1611,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>125</v>
@@ -1619,13 +1625,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1636,7 +1642,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1650,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>52</v>
@@ -1664,7 +1670,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>54</v>
@@ -1678,7 +1684,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>56</v>
@@ -1692,7 +1698,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>107</v>
@@ -1706,7 +1712,7 @@
         <v>108</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>109</v>
@@ -1720,7 +1726,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -1734,7 +1740,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>60</v>
@@ -1748,7 +1754,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>62</v>
@@ -1762,7 +1768,7 @@
         <v>110</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>111</v>
@@ -1776,7 +1782,7 @@
         <v>112</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>111</v>
@@ -1790,7 +1796,7 @@
         <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>111</v>
@@ -1804,7 +1810,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>64</v>
@@ -1815,30 +1821,30 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1846,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>66</v>
@@ -1860,7 +1866,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>68</v>
@@ -1871,13 +1877,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>125</v>
@@ -1888,7 +1894,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>70</v>
@@ -1902,7 +1908,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>70</v>
@@ -1916,7 +1922,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>73</v>
@@ -1930,7 +1936,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>75</v>
@@ -1944,7 +1950,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>77</v>
@@ -1958,7 +1964,7 @@
         <v>78</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>79</v>
@@ -1972,7 +1978,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>79</v>
@@ -1986,7 +1992,7 @@
         <v>81</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>79</v>
@@ -1997,10 +2003,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>82</v>
@@ -2011,10 +2017,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>82</v>
@@ -2028,7 +2034,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>84</v>
@@ -2042,7 +2048,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>84</v>
@@ -2053,13 +2059,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>125</v>
@@ -2070,7 +2076,7 @@
         <v>86</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>87</v>
@@ -2081,27 +2087,27 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>125</v>
@@ -2112,7 +2118,7 @@
         <v>88</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>89</v>
@@ -2126,7 +2132,7 @@
         <v>114</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>115</v>
@@ -2140,7 +2146,7 @@
         <v>90</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>91</v>
@@ -2154,7 +2160,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>91</v>
@@ -2168,7 +2174,7 @@
         <v>93</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>91</v>
@@ -2179,10 +2185,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>94</v>
@@ -2196,7 +2202,7 @@
         <v>95</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>94</v>
@@ -2210,7 +2216,7 @@
         <v>96</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>94</v>
@@ -2224,7 +2230,7 @@
         <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>98</v>
@@ -2235,13 +2241,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D87" s="4" t="s">
         <v>125</v>
@@ -2249,13 +2255,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>125</v>
@@ -2263,13 +2269,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>122</v>
@@ -2280,7 +2286,7 @@
         <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>117</v>
@@ -2294,7 +2300,7 @@
         <v>118</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>119</v>
@@ -2305,13 +2311,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2324,18 +2330,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D92">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+  <conditionalFormatting sqref="A2:D24 A26:D92">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:D25">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D6:D16 D44:D92 D21:D42" numberStoredAsText="1"/>
+    <ignoredError sqref="D44:D92 D26:D42 D6:D15 D20:D24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D28629B-C232-4B70-B3A2-CEE477F06315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7303EAE-B8CF-4D07-9A6D-7008457C3823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -410,12 +410,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>AVENTAL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010007</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -573,6 +567,12 @@
   </si>
   <si>
     <t>S150189</t>
+  </si>
+  <si>
+    <t>AVENTAL C/ MANGA - UNICA</t>
+  </si>
+  <si>
+    <t>S150204</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>102</v>
@@ -1068,7 +1068,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1082,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1096,7 +1096,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>100</v>
@@ -1110,7 +1110,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>121</v>
@@ -1121,16 +1121,16 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1152,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1166,7 +1166,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1180,7 +1180,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1194,7 +1194,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1208,7 +1208,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1222,7 +1222,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1264,7 +1264,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1275,10 +1275,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1292,7 +1292,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1303,16 +1303,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,7 +1320,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1334,7 +1334,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>104</v>
@@ -1348,7 +1348,7 @@
         <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>104</v>
@@ -1362,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1373,13 +1373,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1390,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1401,13 +1401,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1418,7 +1418,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1429,16 +1429,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1460,7 +1460,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1471,30 +1471,30 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>38</v>
@@ -1516,7 +1516,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
@@ -1530,7 +1530,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1544,7 +1544,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>42</v>
@@ -1558,7 +1558,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
@@ -1572,7 +1572,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1586,7 +1586,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1600,7 +1600,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>47</v>
@@ -1611,27 +1611,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1642,7 +1642,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1656,7 +1656,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>52</v>
@@ -1670,7 +1670,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>54</v>
@@ -1684,7 +1684,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>56</v>
@@ -1698,7 +1698,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>107</v>
@@ -1712,7 +1712,7 @@
         <v>108</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>109</v>
@@ -1726,7 +1726,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -1740,7 +1740,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>60</v>
@@ -1754,7 +1754,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>62</v>
@@ -1768,7 +1768,7 @@
         <v>110</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>111</v>
@@ -1782,7 +1782,7 @@
         <v>112</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>111</v>
@@ -1796,7 +1796,7 @@
         <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>111</v>
@@ -1810,7 +1810,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>64</v>
@@ -1821,30 +1821,30 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>66</v>
@@ -1866,7 +1866,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>68</v>
@@ -1877,16 +1877,16 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>70</v>
@@ -1908,7 +1908,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>70</v>
@@ -1922,7 +1922,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>73</v>
@@ -1936,7 +1936,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>75</v>
@@ -1950,7 +1950,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>77</v>
@@ -1964,7 +1964,7 @@
         <v>78</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>79</v>
@@ -1978,7 +1978,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>79</v>
@@ -1992,7 +1992,7 @@
         <v>81</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>79</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>82</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>82</v>
@@ -2034,7 +2034,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>84</v>
@@ -2048,7 +2048,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>84</v>
@@ -2059,16 +2059,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>86</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>87</v>
@@ -2087,30 +2087,30 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,7 +2118,7 @@
         <v>88</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>89</v>
@@ -2132,7 +2132,7 @@
         <v>114</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>115</v>
@@ -2146,7 +2146,7 @@
         <v>90</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>91</v>
@@ -2160,7 +2160,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>91</v>
@@ -2174,7 +2174,7 @@
         <v>93</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>91</v>
@@ -2185,10 +2185,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>94</v>
@@ -2202,7 +2202,7 @@
         <v>95</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>94</v>
@@ -2216,7 +2216,7 @@
         <v>96</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>94</v>
@@ -2230,7 +2230,7 @@
         <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>98</v>
@@ -2241,41 +2241,41 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>122</v>
@@ -2286,7 +2286,7 @@
         <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>117</v>
@@ -2300,7 +2300,7 @@
         <v>118</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>119</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2330,23 +2330,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D24 A26:D92">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
+  <conditionalFormatting sqref="A2:D6 A8:D92">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A25:D25">
+  <conditionalFormatting sqref="A7:D7">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A25))&gt;0</formula>
+      <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D44:D92 D26:D42 D6:D15 D20:D24" numberStoredAsText="1"/>
+    <ignoredError sqref="D44:D92 D26:D42 D6 D20:D24 D8:D15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7303EAE-B8CF-4D07-9A6D-7008457C3823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F55304B-E48F-47AF-B499-B786279F9632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="179">
   <si>
     <t>Complemento</t>
   </si>
@@ -395,12 +395,6 @@
     <t>S150190</t>
   </si>
   <si>
-    <t>TOUCA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S010054</t>
-  </si>
-  <si>
     <t>ALMOFADA P/ CARIMBO N°03 - AZUL - AZUL</t>
   </si>
   <si>
@@ -524,9 +518,6 @@
     <t>S020009</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA</t>
-  </si>
-  <si>
     <t>S110037</t>
   </si>
   <si>
@@ -573,6 +564,18 @@
   </si>
   <si>
     <t>S150204</t>
+  </si>
+  <si>
+    <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
+  </si>
+  <si>
+    <t>S080015</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1054,7 +1057,7 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>102</v>
@@ -1068,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1082,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1096,7 +1099,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>100</v>
@@ -1107,30 +1110,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1138,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1152,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1166,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1180,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1194,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1208,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1222,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1233,16 +1236,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1250,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1264,7 +1267,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1275,10 +1278,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1292,7 +1295,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1303,16 +1306,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1334,7 +1337,7 @@
         <v>103</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>104</v>
@@ -1348,7 +1351,7 @@
         <v>105</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>104</v>
@@ -1362,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1373,13 +1376,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1390,7 +1393,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1401,13 +1404,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1418,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1429,16 +1432,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1446,7 +1449,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1460,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1471,30 +1474,30 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1502,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>38</v>
@@ -1516,7 +1519,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
@@ -1530,7 +1533,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1544,7 +1547,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>42</v>
@@ -1558,7 +1561,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
@@ -1572,7 +1575,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1586,7 +1589,7 @@
         <v>46</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>47</v>
@@ -1600,7 +1603,7 @@
         <v>48</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>47</v>
@@ -1611,27 +1614,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1642,7 +1645,7 @@
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>50</v>
@@ -1656,7 +1659,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>52</v>
@@ -1670,7 +1673,7 @@
         <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>54</v>
@@ -1684,7 +1687,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>56</v>
@@ -1698,7 +1701,7 @@
         <v>106</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>107</v>
@@ -1712,7 +1715,7 @@
         <v>108</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>109</v>
@@ -1726,7 +1729,7 @@
         <v>57</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>58</v>
@@ -1740,7 +1743,7 @@
         <v>59</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>60</v>
@@ -1754,7 +1757,7 @@
         <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>62</v>
@@ -1768,7 +1771,7 @@
         <v>110</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>111</v>
@@ -1782,7 +1785,7 @@
         <v>112</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>111</v>
@@ -1796,7 +1799,7 @@
         <v>113</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>111</v>
@@ -1810,7 +1813,7 @@
         <v>63</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>64</v>
@@ -1821,30 +1824,30 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,7 +1855,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>66</v>
@@ -1866,7 +1869,7 @@
         <v>67</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>68</v>
@@ -1877,16 +1880,16 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,7 +1897,7 @@
         <v>69</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>70</v>
@@ -1908,7 +1911,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>70</v>
@@ -1922,7 +1925,7 @@
         <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>73</v>
@@ -1936,7 +1939,7 @@
         <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>75</v>
@@ -1950,7 +1953,7 @@
         <v>76</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>77</v>
@@ -1964,7 +1967,7 @@
         <v>78</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>79</v>
@@ -1978,7 +1981,7 @@
         <v>80</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>79</v>
@@ -1992,7 +1995,7 @@
         <v>81</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>79</v>
@@ -2003,10 +2006,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>82</v>
@@ -2017,10 +2020,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>82</v>
@@ -2034,7 +2037,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>84</v>
@@ -2048,7 +2051,7 @@
         <v>83</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>84</v>
@@ -2059,16 +2062,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2076,7 +2079,7 @@
         <v>86</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>87</v>
@@ -2087,30 +2090,30 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2118,7 +2121,7 @@
         <v>88</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>89</v>
@@ -2132,7 +2135,7 @@
         <v>114</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>115</v>
@@ -2146,7 +2149,7 @@
         <v>90</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>91</v>
@@ -2160,7 +2163,7 @@
         <v>92</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>91</v>
@@ -2174,7 +2177,7 @@
         <v>93</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>91</v>
@@ -2185,10 +2188,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>94</v>
@@ -2202,7 +2205,7 @@
         <v>95</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>94</v>
@@ -2216,7 +2219,7 @@
         <v>96</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>94</v>
@@ -2230,7 +2233,7 @@
         <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>98</v>
@@ -2241,44 +2244,44 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2286,7 +2289,7 @@
         <v>116</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>117</v>
@@ -2297,29 +2300,29 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D91" s="4">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D92" s="4">
+        <v>159</v>
+      </c>
+      <c r="D92" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2330,23 +2333,23 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D6 A8:D92">
+  <conditionalFormatting sqref="A2:D90">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7">
+  <conditionalFormatting sqref="A91:D92">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A7))&gt;0</formula>
+      <formula>LEN(TRIM(A91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="D44:D92 D26:D42 D6 D20:D24 D8:D15" numberStoredAsText="1"/>
+    <ignoredError sqref="D44:D90 D26:D42 D6 D20:D24 D8:D15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F55304B-E48F-47AF-B499-B786279F9632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C0A51-EFEB-4987-B8D8-1B9E450B819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -257,12 +257,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL FILME PVC - 300 M</t>
-  </si>
-  <si>
-    <t>S010039</t>
-  </si>
-  <si>
     <t>PAPEL HIGIENICO - 300MT</t>
   </si>
   <si>
@@ -576,6 +570,12 @@
   </si>
   <si>
     <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
+  </si>
+  <si>
+    <t>FILME PVC PLASTICO - 300 M</t>
+  </si>
+  <si>
+    <t>S050019</t>
   </si>
 </sst>
 </file>
@@ -1026,9 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91:D92"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1043,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1054,13 +1052,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1071,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1085,7 +1083,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1096,13 +1094,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1110,30 +1108,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1155,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1169,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1183,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1197,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1211,7 +1209,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1225,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1236,16 +1234,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1267,7 +1265,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1278,10 +1276,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1295,7 +1293,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1306,16 +1304,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,7 +1321,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1334,13 +1332,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4">
         <v>904</v>
@@ -1348,13 +1346,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1365,7 +1363,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1376,13 +1374,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1393,7 +1391,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1404,13 +1402,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1421,7 +1419,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1432,16 +1430,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,7 +1447,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1463,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1474,30 +1472,30 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,7 +1503,7 @@
         <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>38</v>
@@ -1519,7 +1517,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>40</v>
@@ -1533,7 +1531,7 @@
         <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>42</v>
@@ -1547,7 +1545,7 @@
         <v>43</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>42</v>
@@ -1561,7 +1559,7 @@
         <v>44</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>42</v>
@@ -1575,7 +1573,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>42</v>
@@ -1586,69 +1584,69 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="D40" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D41" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>121</v>
+        <v>47</v>
+      </c>
+      <c r="D42" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D43" s="4">
-        <v>1</v>
+        <v>135</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1656,27 +1654,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1684,27 +1682,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1712,13 +1710,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1726,223 +1724,223 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="D50" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D53" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D54" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D55" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>139</v>
+      <c r="D57" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D60" s="4">
-        <v>211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>121</v>
+        <v>68</v>
+      </c>
+      <c r="D61" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D62" s="4">
-        <v>820</v>
+        <v>141</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>164</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D64" s="4">
-        <v>750</v>
+        <v>819</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D65" s="4">
         <v>553</v>
@@ -1950,13 +1948,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D66" s="4">
         <v>395</v>
@@ -1964,13 +1962,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D67" s="4">
         <v>86</v>
@@ -1978,13 +1976,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D68" s="4">
         <v>87</v>
@@ -1992,13 +1990,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D69" s="4">
         <v>88</v>
@@ -2006,13 +2004,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D70" s="4">
         <v>55</v>
@@ -2020,13 +2018,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D71" s="4">
         <v>54</v>
@@ -2034,13 +2032,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D72" s="4">
         <v>994</v>
@@ -2048,13 +2046,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D73" s="4">
         <v>695</v>
@@ -2062,27 +2060,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2090,41 +2088,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D78" s="4">
         <v>107</v>
@@ -2132,13 +2130,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D79" s="4">
         <v>918</v>
@@ -2146,13 +2144,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D80" s="4">
         <v>170</v>
@@ -2160,13 +2158,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D81" s="4">
         <v>163</v>
@@ -2174,13 +2172,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D82" s="4">
         <v>799</v>
@@ -2188,13 +2186,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4">
         <v>160</v>
@@ -2202,13 +2200,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D84" s="4">
         <v>569</v>
@@ -2216,13 +2214,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D85" s="4">
         <v>762</v>
@@ -2230,13 +2228,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D86" s="4">
         <v>211</v>
@@ -2244,55 +2242,55 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2300,27 +2298,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
@@ -2328,28 +2326,25 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D64" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D64">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D92">
       <sortCondition ref="A1:A64"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D90">
+  <conditionalFormatting sqref="A2:D63 A65:D92">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A91:D92">
+  <conditionalFormatting sqref="A64:D64">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A91))&gt;0</formula>
+      <formula>LEN(TRIM(A64))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <ignoredErrors>
-    <ignoredError sqref="D44:D90 D26:D42 D6 D20:D24 D8:D15" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186C0A51-EFEB-4987-B8D8-1B9E450B819D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B12C2-0314-44FF-913B-BBAF78BCD438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -152,9 +152,6 @@
     <t>S050018</t>
   </si>
   <si>
-    <t>ESPONJA DUPLA FACE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010018</t>
   </si>
   <si>
@@ -576,6 +573,9 @@
   </si>
   <si>
     <t>S050019</t>
+  </si>
+  <si>
+    <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1052,13 +1054,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1069,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1083,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1094,13 +1096,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1108,30 +1110,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>172</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1139,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1153,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1167,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1181,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1195,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1209,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1223,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1234,16 +1236,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1251,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1265,7 +1267,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1276,10 +1278,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1293,7 +1295,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1304,16 +1306,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1321,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1332,13 +1334,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D22" s="4">
         <v>904</v>
@@ -1346,13 +1348,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1363,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1374,13 +1376,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1391,7 +1393,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1402,13 +1404,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1419,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1430,16 +1432,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,7 +1449,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1461,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1472,55 +1474,55 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>133</v>
-      </c>
       <c r="D33" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1528,13 +1530,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D36" s="4">
         <v>899</v>
@@ -1542,13 +1544,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="4">
         <v>896</v>
@@ -1556,13 +1558,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="4">
         <v>900</v>
@@ -1570,13 +1572,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="4">
         <v>898</v>
@@ -1584,13 +1586,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>178</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1598,13 +1600,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D41" s="4">
         <v>166</v>
@@ -1612,13 +1614,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="4">
         <v>167</v>
@@ -1626,27 +1628,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1654,13 +1656,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1668,13 +1670,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1682,13 +1684,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1696,13 +1698,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1710,13 +1712,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1724,13 +1726,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1738,13 +1740,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="D51" s="4">
         <v>40</v>
@@ -1752,13 +1754,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1766,13 +1768,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D53" s="4">
         <v>745</v>
@@ -1780,13 +1782,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1794,13 +1796,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1808,13 +1810,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1822,13 +1824,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1836,41 +1838,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1878,13 +1880,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D61" s="4">
         <v>211</v>
@@ -1892,27 +1894,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="D63" s="4">
         <v>820</v>
@@ -1920,13 +1922,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" s="4">
         <v>819</v>
@@ -1934,13 +1936,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D65" s="4">
         <v>553</v>
@@ -1948,13 +1950,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D66" s="4">
         <v>395</v>
@@ -1962,13 +1964,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D67" s="4">
         <v>86</v>
@@ -1976,13 +1978,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="4">
         <v>87</v>
@@ -1990,13 +1992,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" s="4">
         <v>88</v>
@@ -2004,13 +2006,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" s="4">
         <v>55</v>
@@ -2018,13 +2020,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D71" s="4">
         <v>54</v>
@@ -2032,13 +2034,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D72" s="4">
         <v>994</v>
@@ -2046,13 +2048,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D73" s="4">
         <v>695</v>
@@ -2060,27 +2062,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2088,41 +2090,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C76" s="4" t="s">
+      <c r="D76" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>150</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D78" s="4">
         <v>107</v>
@@ -2130,13 +2132,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D79" s="4">
         <v>918</v>
@@ -2144,13 +2146,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D80" s="4">
         <v>170</v>
@@ -2158,13 +2160,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" s="4">
         <v>163</v>
@@ -2172,13 +2174,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82" s="4">
         <v>799</v>
@@ -2186,13 +2188,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="4">
         <v>160</v>
@@ -2200,13 +2202,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="4">
         <v>569</v>
@@ -2214,13 +2216,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="4">
         <v>762</v>
@@ -2228,13 +2230,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D86" s="4">
         <v>211</v>
@@ -2242,55 +2244,55 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>156</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2298,27 +2300,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C91" s="4" t="s">
+      <c r="D91" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
@@ -2331,18 +2333,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="2" priority="6">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D63 A65:D92">
+  <conditionalFormatting sqref="A2:D33 A35:D92">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64:D64">
+  <conditionalFormatting sqref="A34:D34">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A64))&gt;0</formula>
+      <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4B12C2-0314-44FF-913B-BBAF78BCD438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191DCA6-E687-4270-B76D-C8D9A76742EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -356,12 +356,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LENCOL HOSPITALAR PAPEL 50CMX50M - UNICA</t>
-  </si>
-  <si>
-    <t>S010084</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
   </si>
   <si>
@@ -576,6 +570,12 @@
   </si>
   <si>
     <t>ESPONJA DUPLA FACE - 110X75X20MM</t>
+  </si>
+  <si>
+    <t>LENCOL HOSPITALAR DE PAPEL - 50CMX50M</t>
+  </si>
+  <si>
+    <t>S010024</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:D34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1057,7 +1057,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>99</v>
@@ -1071,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1085,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1099,7 +1099,7 @@
         <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>97</v>
@@ -1110,30 +1110,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1141,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1155,7 +1155,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1169,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1183,7 +1183,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1197,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1211,7 +1211,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1225,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1236,16 +1236,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1267,7 +1267,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1295,7 +1295,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1306,16 +1306,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1337,7 +1337,7 @@
         <v>100</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>101</v>
@@ -1351,7 +1351,7 @@
         <v>102</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>101</v>
@@ -1365,7 +1365,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1404,13 +1404,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -1421,7 +1421,7 @@
         <v>31</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>32</v>
@@ -1432,16 +1432,16 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,7 +1449,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>34</v>
@@ -1463,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>36</v>
@@ -1474,38 +1474,38 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>37</v>
@@ -1519,7 +1519,7 @@
         <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>39</v>
@@ -1533,7 +1533,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>41</v>
@@ -1547,7 +1547,7 @@
         <v>42</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>41</v>
@@ -1561,7 +1561,7 @@
         <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>41</v>
@@ -1575,7 +1575,7 @@
         <v>44</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>41</v>
@@ -1586,13 +1586,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1603,7 +1603,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>46</v>
@@ -1617,7 +1617,7 @@
         <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>46</v>
@@ -1628,27 +1628,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>49</v>
@@ -1673,7 +1673,7 @@
         <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>51</v>
@@ -1687,7 +1687,7 @@
         <v>52</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>53</v>
@@ -1701,7 +1701,7 @@
         <v>54</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>55</v>
@@ -1715,7 +1715,7 @@
         <v>103</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>104</v>
@@ -1726,16 +1726,16 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>57</v>
@@ -1757,7 +1757,7 @@
         <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>59</v>
@@ -1771,7 +1771,7 @@
         <v>60</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>61</v>
@@ -1782,13 +1782,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1796,13 +1796,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1810,13 +1810,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1827,7 +1827,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>63</v>
@@ -1838,30 +1838,30 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>64</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>65</v>
@@ -1883,7 +1883,7 @@
         <v>66</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>67</v>
@@ -1894,16 +1894,16 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>68</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>69</v>
@@ -1925,7 +1925,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>69</v>
@@ -1939,7 +1939,7 @@
         <v>71</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>72</v>
@@ -1953,7 +1953,7 @@
         <v>73</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>74</v>
@@ -1967,7 +1967,7 @@
         <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>76</v>
@@ -1981,7 +1981,7 @@
         <v>77</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>76</v>
@@ -1995,7 +1995,7 @@
         <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>76</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>79</v>
@@ -2020,10 +2020,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>79</v>
@@ -2037,7 +2037,7 @@
         <v>82</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>81</v>
@@ -2051,7 +2051,7 @@
         <v>80</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>81</v>
@@ -2062,16 +2062,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,7 +2079,7 @@
         <v>83</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>84</v>
@@ -2090,30 +2090,30 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>86</v>
@@ -2132,13 +2132,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D79" s="4">
         <v>918</v>
@@ -2149,7 +2149,7 @@
         <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>88</v>
@@ -2163,7 +2163,7 @@
         <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>88</v>
@@ -2177,7 +2177,7 @@
         <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>88</v>
@@ -2188,10 +2188,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>91</v>
@@ -2205,7 +2205,7 @@
         <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>91</v>
@@ -2219,7 +2219,7 @@
         <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>91</v>
@@ -2233,7 +2233,7 @@
         <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>95</v>
@@ -2244,55 +2244,55 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2300,27 +2300,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
@@ -2333,18 +2333,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D33 A35:D92">
+  <conditionalFormatting sqref="A2:D49 A51:D92">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A34:D34">
+  <conditionalFormatting sqref="A50:D50">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A34))&gt;0</formula>
+      <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191DCA6-E687-4270-B76D-C8D9A76742EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8724E8-9F7C-424E-8386-25419E96863A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
   <si>
     <t>Complemento</t>
   </si>
@@ -134,18 +134,6 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>DISPENSER P/ SABONETE LIQ. - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110014</t>
-  </si>
-  <si>
-    <t>DISPENSER PAPEL TOALHA - UNICA</t>
-  </si>
-  <si>
-    <t>S010063</t>
-  </si>
-  <si>
     <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
   </si>
   <si>
@@ -407,18 +395,9 @@
     <t>S020089</t>
   </si>
   <si>
-    <t>DISPENSER ALCOOL EM GEL - ÚNICA</t>
-  </si>
-  <si>
     <t>S010087</t>
   </si>
   <si>
-    <t>DISPENSER PAPEL HIGIENICO - UNICA</t>
-  </si>
-  <si>
-    <t>S010064</t>
-  </si>
-  <si>
     <t>ENVELOPE A4 - OURO - OURO</t>
   </si>
   <si>
@@ -576,6 +555,18 @@
   </si>
   <si>
     <t>S010024</t>
+  </si>
+  <si>
+    <t>DISPENSER - ALCOOL EM GEL</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL HIGIENICO</t>
+  </si>
+  <si>
+    <t>DISPENSER - PAPEL TOALHA</t>
+  </si>
+  <si>
+    <t>DISPENSER - SABONETE LIQUIDO</t>
   </si>
 </sst>
 </file>
@@ -1026,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1054,13 +1045,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1071,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
@@ -1085,7 +1076,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -1096,13 +1087,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1110,30 +1101,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1141,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
@@ -1155,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>10</v>
@@ -1169,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>12</v>
@@ -1183,7 +1174,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
@@ -1197,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1211,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
@@ -1225,7 +1216,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -1236,16 +1227,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>21</v>
@@ -1267,7 +1258,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>21</v>
@@ -1278,10 +1269,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1295,7 +1286,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>24</v>
@@ -1306,16 +1297,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1323,7 +1314,7 @@
         <v>25</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>26</v>
@@ -1334,13 +1325,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D22" s="4">
         <v>904</v>
@@ -1348,13 +1339,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1365,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1376,13 +1367,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1393,7 +1384,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1404,69 +1395,69 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>124</v>
+        <v>174</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1474,41 +1465,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D34" s="4">
         <v>1159</v>
@@ -1516,13 +1507,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1530,13 +1521,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D36" s="4">
         <v>899</v>
@@ -1544,13 +1535,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D37" s="4">
         <v>896</v>
@@ -1558,13 +1549,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D38" s="4">
         <v>900</v>
@@ -1572,13 +1563,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D39" s="4">
         <v>898</v>
@@ -1586,13 +1577,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1600,13 +1591,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D41" s="4">
         <v>166</v>
@@ -1614,13 +1605,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D42" s="4">
         <v>167</v>
@@ -1628,27 +1619,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1656,13 +1647,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -1670,13 +1661,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1684,13 +1675,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1698,13 +1689,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1712,13 +1703,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1726,13 +1717,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D50" s="4">
         <v>1163</v>
@@ -1740,13 +1731,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4">
         <v>40</v>
@@ -1754,13 +1745,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1768,13 +1759,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4">
         <v>745</v>
@@ -1782,13 +1773,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1796,13 +1787,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1810,13 +1801,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1824,13 +1815,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1838,41 +1829,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1880,13 +1871,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D61" s="4">
         <v>211</v>
@@ -1894,27 +1885,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D63" s="4">
         <v>820</v>
@@ -1922,13 +1913,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D64" s="4">
         <v>819</v>
@@ -1936,13 +1927,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D65" s="4">
         <v>553</v>
@@ -1950,13 +1941,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D66" s="4">
         <v>395</v>
@@ -1964,13 +1955,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D67" s="4">
         <v>86</v>
@@ -1978,13 +1969,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D68" s="4">
         <v>87</v>
@@ -1992,13 +1983,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D69" s="4">
         <v>88</v>
@@ -2006,13 +1997,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D70" s="4">
         <v>55</v>
@@ -2020,13 +2011,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D71" s="4">
         <v>54</v>
@@ -2034,13 +2025,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D72" s="4">
         <v>994</v>
@@ -2048,13 +2039,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D73" s="4">
         <v>695</v>
@@ -2062,27 +2053,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2090,41 +2081,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D78" s="4">
         <v>107</v>
@@ -2132,13 +2123,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D79" s="4">
         <v>918</v>
@@ -2146,13 +2137,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D80" s="4">
         <v>170</v>
@@ -2160,13 +2151,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D81" s="4">
         <v>163</v>
@@ -2174,13 +2165,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D82" s="4">
         <v>799</v>
@@ -2188,13 +2179,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D83" s="4">
         <v>160</v>
@@ -2202,13 +2193,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D84" s="4">
         <v>569</v>
@@ -2216,13 +2207,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D85" s="4">
         <v>762</v>
@@ -2230,13 +2221,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D86" s="4">
         <v>211</v>
@@ -2244,55 +2235,55 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2300,27 +2291,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
@@ -2333,18 +2324,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D49 A51:D92">
+  <conditionalFormatting sqref="A2:D26 A31:D92">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50:D50">
+  <conditionalFormatting sqref="A27:D30">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
+      <formula>LEN(TRIM(A27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8724E8-9F7C-424E-8386-25419E96863A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77EAE3B-B9BA-4EAD-A767-D8A8B5B692F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="176">
   <si>
     <t>Complemento</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Derivação</t>
   </si>
   <si>
-    <t>ALCOOL 70% PARA PROCEDIMENTO - 1000ML - 1000ML</t>
-  </si>
-  <si>
     <t>S010004</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>FITA ADESIVA TRANSPARENTE - 45CMX45M</t>
   </si>
   <si>
-    <t>FLANELA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010021</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010032</t>
   </si>
   <si>
@@ -344,18 +335,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G - TAMANHO G</t>
-  </si>
-  <si>
     <t>S010031</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P - TAMANHO P</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -431,9 +413,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>PANO DE PRATO - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -567,6 +546,27 @@
   </si>
   <si>
     <t>DISPENSER - SABONETE LIQUIDO</t>
+  </si>
+  <si>
+    <t>ALCOOL LIQUIDO 70º - 1000ML - 1000ML</t>
+  </si>
+  <si>
+    <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - UNICA</t>
+  </si>
+  <si>
+    <t>PANO DE PRATO - 50X75CM</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="4">
         <v>105</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="4">
         <v>103</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1101,41 +1101,41 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>809</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="D9" s="4">
         <v>1046</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="D10" s="4">
         <v>103</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="4">
         <v>33</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D12" s="4">
         <v>31</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D13" s="4">
         <v>20</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1227,27 +1227,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4">
         <v>3</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4">
         <v>4</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1297,27 +1297,27 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D21" s="4">
         <v>52</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D22" s="4">
         <v>904</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D24" s="4">
         <v>101</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="D26" s="4">
         <v>103</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>32</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -1465,41 +1465,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="4">
         <v>1159</v>
@@ -1507,13 +1507,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="D36" s="4">
         <v>899</v>
@@ -1535,13 +1535,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37" s="4">
         <v>896</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="4">
         <v>900</v>
@@ -1563,13 +1563,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4">
         <v>898</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="D41" s="4">
         <v>166</v>
@@ -1605,13 +1605,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42" s="4">
         <v>167</v>
@@ -1619,27 +1619,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1647,27 +1647,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1675,13 +1675,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1717,13 +1717,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D50" s="4">
         <v>1163</v>
@@ -1731,13 +1731,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" s="4">
         <v>40</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1759,13 +1759,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D53" s="4">
         <v>745</v>
@@ -1773,13 +1773,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>101</v>
+        <v>171</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1787,13 +1787,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1801,13 +1801,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -1829,41 +1829,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D61" s="4">
         <v>211</v>
@@ -1885,27 +1885,27 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
+      </c>
+      <c r="D62" s="4">
+        <v>1167</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" s="4">
         <v>820</v>
@@ -1913,13 +1913,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D64" s="4">
         <v>819</v>
@@ -1927,13 +1927,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D65" s="4">
         <v>553</v>
@@ -1941,13 +1941,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D66" s="4">
         <v>395</v>
@@ -1955,13 +1955,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D67" s="4">
         <v>86</v>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D68" s="4">
         <v>87</v>
@@ -1983,13 +1983,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D69" s="4">
         <v>88</v>
@@ -1997,13 +1997,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D70" s="4">
         <v>55</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4">
         <v>54</v>
@@ -2025,13 +2025,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D72" s="4">
         <v>994</v>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D73" s="4">
         <v>695</v>
@@ -2053,27 +2053,27 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2081,41 +2081,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D78" s="4">
         <v>107</v>
@@ -2123,13 +2123,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D79" s="4">
         <v>918</v>
@@ -2137,13 +2137,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D80" s="4">
         <v>170</v>
@@ -2151,13 +2151,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D81" s="4">
         <v>163</v>
@@ -2165,13 +2165,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D82" s="4">
         <v>799</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D83" s="4">
         <v>160</v>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D84" s="4">
         <v>569</v>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D85" s="4">
         <v>762</v>
@@ -2221,13 +2221,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D86" s="4">
         <v>211</v>
@@ -2235,55 +2235,55 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2291,27 +2291,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
@@ -2324,18 +2324,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="8">
+    <cfRule type="expression" dxfId="2" priority="14">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D26 A31:D92">
+  <conditionalFormatting sqref="A2:D61 A63:D92">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:D30">
+  <conditionalFormatting sqref="A62:D62">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A27))&gt;0</formula>
+      <formula>LEN(TRIM(A62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77EAE3B-B9BA-4EAD-A767-D8A8B5B692F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73442A3-76B2-4754-97FE-5CB057BF0A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -314,9 +314,6 @@
     <t>S010005</t>
   </si>
   <si>
-    <t>AGULHA - UNICA</t>
-  </si>
-  <si>
     <t>S010072</t>
   </si>
   <si>
@@ -335,9 +332,6 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>S010031</t>
-  </si>
-  <si>
     <t>SACO DE LIXO INFECTANTE - 50LTS</t>
   </si>
   <si>
@@ -554,19 +548,25 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO G</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO M</t>
-  </si>
-  <si>
-    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAMANHO P</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - UNICA</t>
   </si>
   <si>
     <t>PANO DE PRATO - 50X75CM</t>
+  </si>
+  <si>
+    <t>AGULHA 12X40MM - 100UN</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
+  </si>
+  <si>
+    <t>S080023</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.M - TAM.M</t>
+  </si>
+  <si>
+    <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
   </si>
 </sst>
 </file>
@@ -674,16 +674,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1017,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62:D62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1045,24 +1036,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D2" s="5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1076,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1090,7 +1081,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>90</v>
@@ -1101,30 +1092,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1132,7 +1123,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1146,7 +1137,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1160,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1174,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1188,7 +1179,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1202,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1216,7 +1207,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1227,16 +1218,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1244,7 +1235,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1258,7 +1249,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1269,10 +1260,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1286,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1297,16 +1288,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1325,13 +1316,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D22" s="4">
         <v>904</v>
@@ -1339,13 +1330,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1356,7 +1347,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1367,13 +1358,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1384,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1395,13 +1386,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1409,13 +1400,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1423,13 +1414,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1437,13 +1428,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1454,7 +1445,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
@@ -1465,44 +1456,44 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="4">
-        <v>1159</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1510,7 +1501,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>34</v>
@@ -1524,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1538,7 +1529,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1552,7 +1543,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -1566,7 +1557,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>36</v>
@@ -1577,13 +1568,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D40" s="4">
         <v>750</v>
@@ -1594,7 +1585,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1608,7 +1599,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>41</v>
@@ -1619,27 +1610,27 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -1647,10 +1638,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>43</v>
@@ -1664,7 +1655,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
@@ -1678,7 +1669,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>47</v>
@@ -1692,7 +1683,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>49</v>
@@ -1703,13 +1694,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -1717,13 +1708,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D50" s="4">
         <v>1163</v>
@@ -1734,7 +1725,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>51</v>
@@ -1748,7 +1739,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>53</v>
@@ -1762,7 +1753,7 @@
         <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>55</v>
@@ -1773,13 +1764,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D54" s="4">
         <v>33</v>
@@ -1787,13 +1778,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D55" s="4">
         <v>32</v>
@@ -1801,13 +1792,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>173</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="D56" s="4">
         <v>31</v>
@@ -1818,7 +1809,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
@@ -1829,38 +1820,38 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>58</v>
@@ -1874,7 +1865,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>60</v>
@@ -1885,13 +1876,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62" s="4">
         <v>1167</v>
@@ -1902,7 +1893,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -1916,7 +1907,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>62</v>
@@ -1930,7 +1921,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>65</v>
@@ -1944,7 +1935,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>67</v>
@@ -1958,7 +1949,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>69</v>
@@ -1972,7 +1963,7 @@
         <v>70</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>69</v>
@@ -1986,7 +1977,7 @@
         <v>71</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>69</v>
@@ -1997,10 +1988,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>72</v>
@@ -2011,10 +2002,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>72</v>
@@ -2028,7 +2019,7 @@
         <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>74</v>
@@ -2042,7 +2033,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>74</v>
@@ -2053,16 +2044,16 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2070,7 +2061,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>77</v>
@@ -2081,30 +2072,30 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2112,7 +2103,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>79</v>
@@ -2123,13 +2114,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D79" s="4">
         <v>918</v>
@@ -2140,7 +2131,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>81</v>
@@ -2154,7 +2145,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>81</v>
@@ -2168,7 +2159,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>81</v>
@@ -2179,10 +2170,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>84</v>
@@ -2196,7 +2187,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>84</v>
@@ -2210,7 +2201,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>84</v>
@@ -2224,7 +2215,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>88</v>
@@ -2235,55 +2226,55 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2291,27 +2282,27 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D92" s="5">
         <v>1</v>
@@ -2324,18 +2315,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="14">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D61 A63:D92">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D92">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A62:D62">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73442A3-76B2-4754-97FE-5CB057BF0A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ACEEF6-F46F-4641-970E-D50DF5E4BF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$63</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="174">
   <si>
     <t>Complemento</t>
   </si>
@@ -381,12 +381,6 @@
   </si>
   <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>ESPANADOR - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S110018</t>
   </si>
   <si>
     <t>FITA DUPLA FACE - UNICA</t>
@@ -1006,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1036,10 +1030,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>91</v>
@@ -1050,10 +1044,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1067,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1081,7 +1075,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>90</v>
@@ -1095,7 +1089,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>102</v>
@@ -1106,13 +1100,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>104</v>
@@ -1123,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1137,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1151,7 +1145,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1165,7 +1159,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1179,7 +1173,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1193,7 +1187,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1207,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1221,7 +1215,7 @@
         <v>105</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>106</v>
@@ -1235,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1249,7 +1243,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1263,7 +1257,7 @@
         <v>107</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1277,7 +1271,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1291,7 +1285,7 @@
         <v>108</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>109</v>
@@ -1305,7 +1299,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1319,7 +1313,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>93</v>
@@ -1333,7 +1327,7 @@
         <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>93</v>
@@ -1347,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1358,13 +1352,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1375,7 +1369,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1386,10 +1380,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>110</v>
@@ -1400,10 +1394,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>110</v>
@@ -1414,10 +1408,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>110</v>
@@ -1428,10 +1422,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>110</v>
@@ -1445,7 +1439,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
@@ -1459,7 +1453,7 @@
         <v>111</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>112</v>
@@ -1470,195 +1464,195 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>104</v>
+        <v>32</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c r="D39" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="D40" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D42" s="4">
-        <v>167</v>
+        <v>115</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>104</v>
+        <v>138</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="D44" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>168</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D45" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D46" s="4">
         <v>80</v>
@@ -1666,27 +1660,27 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D47" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1694,72 +1688,72 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="D49" s="4">
-        <v>1</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="D50" s="4">
-        <v>1163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D51" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D52" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>54</v>
+        <v>170</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="D53" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,55 +1761,55 @@
         <v>172</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D54" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>175</v>
+        <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="D56" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="4">
-        <v>2</v>
+      <c r="D57" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1823,7 +1817,7 @@
         <v>118</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -1834,394 +1828,394 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>121</v>
+        <v>58</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D60" s="4">
-        <v>1</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D61" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="D62" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D63" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D64" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D65" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D66" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D67" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D69" s="4">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>72</v>
       </c>
       <c r="D70" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D71" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="4">
-        <v>695</v>
+        <v>124</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>104</v>
+        <v>77</v>
+      </c>
+      <c r="D74" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D75" s="4">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="D77" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D78" s="4">
-        <v>107</v>
+        <v>918</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D79" s="4">
-        <v>918</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D80" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D81" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D82" s="4">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D83" s="4">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>84</v>
       </c>
       <c r="D84" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D85" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D86" s="4">
-        <v>211</v>
+        <v>131</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,7 +2223,7 @@
         <v>132</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>133</v>
@@ -2243,75 +2237,61 @@
         <v>134</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="5">
+        <v>136</v>
+      </c>
+      <c r="D91" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D64" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D92">
-      <sortCondition ref="A1:A64"/>
+  <autoFilter ref="A1:D63" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
+      <sortCondition ref="A1:A63"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2319,7 +2299,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D92">
+  <conditionalFormatting sqref="A2:D91">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28ACEEF6-F46F-4641-970E-D50DF5E4BF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA27B561-AA92-482B-8BE9-A1686756D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="172">
   <si>
     <t>Complemento</t>
   </si>
@@ -332,15 +332,9 @@
     <t>S150191</t>
   </si>
   <si>
-    <t>SACO DE LIXO INFECTANTE - 50LTS</t>
-  </si>
-  <si>
     <t>S010062</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - ÚNICA</t>
-  </si>
-  <si>
     <t>S150190</t>
   </si>
   <si>
@@ -437,12 +431,6 @@
     <t>S020007</t>
   </si>
   <si>
-    <t>TESOURA MULTIUSO - UNICA - UNICA</t>
-  </si>
-  <si>
-    <t>S020008</t>
-  </si>
-  <si>
     <t>TINTA P/ CARIMBO 42 ML - AZUL - AZUL</t>
   </si>
   <si>
@@ -491,12 +479,6 @@
     <t>S150189</t>
   </si>
   <si>
-    <t>AVENTAL C/ MANGA - UNICA</t>
-  </si>
-  <si>
-    <t>S150204</t>
-  </si>
-  <si>
     <t>TOUCA SANFONADA - DESCARTÁVEL - 100UN</t>
   </si>
   <si>
@@ -561,6 +543,18 @@
   </si>
   <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.P - TAM.P</t>
+  </si>
+  <si>
+    <t>AVENTAL DESCARTAVEL TNT MANGA LONGA - 30G</t>
+  </si>
+  <si>
+    <t>S080016</t>
+  </si>
+  <si>
+    <t>SACO P/ LIXO INFECTANTE - 50L</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1030,10 +1024,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>91</v>
@@ -1044,10 +1038,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1061,7 +1055,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1075,7 +1069,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>90</v>
@@ -1086,30 +1080,30 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>104</v>
+        <v>169</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1117,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1131,7 +1125,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1145,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1159,7 +1153,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1173,7 +1167,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1187,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1201,7 +1195,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1212,16 +1206,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1229,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1243,7 +1237,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1254,10 +1248,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1271,7 +1265,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1282,16 +1276,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1299,7 +1293,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1313,7 +1307,7 @@
         <v>92</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>93</v>
@@ -1327,7 +1321,7 @@
         <v>94</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>93</v>
@@ -1341,7 +1335,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1352,13 +1346,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1369,7 +1363,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1380,13 +1374,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1394,13 +1388,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1408,13 +1402,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1422,13 +1416,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1439,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
@@ -1450,24 +1444,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1481,7 +1475,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1495,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1509,7 +1503,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1523,7 +1517,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1537,7 +1531,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -1548,13 +1542,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1565,7 +1559,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>41</v>
@@ -1579,7 +1573,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1590,27 +1584,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1618,10 +1612,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1635,7 +1629,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1649,7 +1643,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1663,7 +1657,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1677,7 +1671,7 @@
         <v>95</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>96</v>
@@ -1688,16 +1682,16 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D49" s="4">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1705,7 +1699,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>51</v>
@@ -1719,7 +1713,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1733,7 +1727,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
@@ -1744,13 +1738,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1758,13 +1752,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D54" s="4">
         <v>32</v>
@@ -1772,13 +1766,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D55" s="4">
         <v>31</v>
@@ -1789,7 +1783,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>57</v>
@@ -1800,38 +1794,38 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>58</v>
@@ -1845,7 +1839,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>60</v>
@@ -1856,13 +1850,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1873,7 +1867,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>62</v>
@@ -1887,7 +1881,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -1901,7 +1895,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>65</v>
@@ -1915,7 +1909,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>67</v>
@@ -1929,7 +1923,7 @@
         <v>68</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>69</v>
@@ -1943,7 +1937,7 @@
         <v>70</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>69</v>
@@ -1957,7 +1951,7 @@
         <v>71</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>69</v>
@@ -1968,10 +1962,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>72</v>
@@ -1982,10 +1976,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>72</v>
@@ -1999,7 +1993,7 @@
         <v>75</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>74</v>
@@ -2013,7 +2007,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>74</v>
@@ -2024,16 +2018,16 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>77</v>
@@ -2052,30 +2046,30 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,7 +2077,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>79</v>
@@ -2094,16 +2088,16 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D78" s="4">
-        <v>918</v>
+        <v>986</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,7 +2105,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>81</v>
@@ -2125,7 +2119,7 @@
         <v>82</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>81</v>
@@ -2139,7 +2133,7 @@
         <v>83</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>81</v>
@@ -2150,10 +2144,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>84</v>
@@ -2167,7 +2161,7 @@
         <v>85</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>84</v>
@@ -2181,7 +2175,7 @@
         <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>84</v>
@@ -2195,7 +2189,7 @@
         <v>87</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>88</v>
@@ -2206,85 +2200,71 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" s="4">
-        <v>1</v>
+        <v>147</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D91" s="5">
+        <v>132</v>
+      </c>
+      <c r="D90" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2295,11 +2275,11 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D91">
+  <conditionalFormatting sqref="A2:D90">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA27B561-AA92-482B-8BE9-A1686756D959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE290A6-12BC-44AC-B8B8-059EA9B99B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>S020101</t>
   </si>
   <si>
-    <t>S010032</t>
-  </si>
-  <si>
     <t>MOUSE - USB</t>
   </si>
   <si>
@@ -524,9 +521,6 @@
     <t>FLANELA - 29cm X 49cm - 29cm X 49cm</t>
   </si>
   <si>
-    <t>MASCARA DESCARTAVEL - UNICA</t>
-  </si>
-  <si>
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
@@ -555,6 +549,12 @@
   </si>
   <si>
     <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
+  </si>
+  <si>
+    <t>MASCARA DESCARTAVEL - TNT</t>
+  </si>
+  <si>
+    <t>S080026</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -996,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:XFD87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1024,13 +1033,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1038,10 +1047,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1055,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -1066,13 +1075,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D5" s="4">
         <v>53</v>
@@ -1080,27 +1089,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D7" s="4">
         <v>1208</v>
@@ -1111,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1125,7 +1134,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1139,7 +1148,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1153,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -1167,7 +1176,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>13</v>
@@ -1181,7 +1190,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1195,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>18</v>
@@ -1206,16 +1215,16 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1223,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -1237,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>20</v>
@@ -1248,10 +1257,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>20</v>
@@ -1265,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>23</v>
@@ -1276,16 +1285,16 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1293,7 +1302,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>25</v>
@@ -1304,13 +1313,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="D22" s="4">
         <v>904</v>
@@ -1318,13 +1327,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4">
         <v>903</v>
@@ -1335,7 +1344,7 @@
         <v>26</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>27</v>
@@ -1346,13 +1355,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
@@ -1363,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>29</v>
@@ -1374,13 +1383,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="4">
         <v>1176</v>
@@ -1388,13 +1397,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D28" s="4">
         <v>1177</v>
@@ -1402,13 +1411,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D29" s="4">
         <v>1178</v>
@@ -1416,13 +1425,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D30" s="4">
         <v>1179</v>
@@ -1433,7 +1442,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>31</v>
@@ -1444,24 +1453,24 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1475,7 +1484,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1489,7 +1498,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
@@ -1503,7 +1512,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>36</v>
@@ -1517,7 +1526,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>36</v>
@@ -1531,7 +1540,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
@@ -1542,13 +1551,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>151</v>
       </c>
       <c r="D39" s="4">
         <v>750</v>
@@ -1559,7 +1568,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>41</v>
@@ -1573,7 +1582,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>41</v>
@@ -1584,27 +1593,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="D42" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -1612,10 +1621,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1629,7 +1638,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1643,7 +1652,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1657,7 +1666,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>49</v>
@@ -1668,13 +1677,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -1682,13 +1691,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D49" s="4">
         <v>1164</v>
@@ -1699,7 +1708,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>51</v>
@@ -1713,7 +1722,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1727,7 +1736,7 @@
         <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>55</v>
@@ -1738,13 +1747,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D53" s="4">
         <v>33</v>
@@ -1752,13 +1761,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D54" s="4">
         <v>32</v>
@@ -1766,13 +1775,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="4">
         <v>31</v>
@@ -1783,7 +1792,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>57</v>
@@ -1794,55 +1803,55 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="D59" s="4">
-        <v>1</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="D60" s="4">
         <v>211</v>
@@ -1850,13 +1859,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D61" s="4">
         <v>1167</v>
@@ -1864,13 +1873,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D62" s="4">
         <v>820</v>
@@ -1878,13 +1887,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" s="4">
         <v>819</v>
@@ -1892,13 +1901,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D64" s="4">
         <v>553</v>
@@ -1906,13 +1915,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D65" s="4">
         <v>395</v>
@@ -1920,13 +1929,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D66" s="4">
         <v>86</v>
@@ -1934,13 +1943,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="4">
         <v>87</v>
@@ -1948,13 +1957,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="4">
         <v>88</v>
@@ -1962,13 +1971,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" s="4">
         <v>55</v>
@@ -1976,13 +1985,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D70" s="4">
         <v>54</v>
@@ -1990,13 +1999,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D71" s="4">
         <v>994</v>
@@ -2004,13 +2013,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D72" s="4">
         <v>695</v>
@@ -2018,27 +2027,27 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -2046,41 +2055,41 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D77" s="4">
         <v>107</v>
@@ -2088,13 +2097,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D78" s="4">
         <v>986</v>
@@ -2102,13 +2111,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D79" s="4">
         <v>170</v>
@@ -2116,13 +2125,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D80" s="4">
         <v>163</v>
@@ -2130,13 +2139,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81" s="4">
         <v>799</v>
@@ -2144,13 +2153,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D82" s="4">
         <v>160</v>
@@ -2158,13 +2167,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D83" s="4">
         <v>569</v>
@@ -2172,13 +2181,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84" s="4">
         <v>762</v>
@@ -2186,13 +2195,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D85" s="4">
         <v>211</v>
@@ -2200,41 +2209,41 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>129</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2242,27 +2251,27 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C89" s="4" t="s">
+      <c r="D89" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
@@ -2275,13 +2284,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D90">
+  <conditionalFormatting sqref="A2:D58 A60:D90">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:D59">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE290A6-12BC-44AC-B8B8-059EA9B99B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D848E-499F-4465-BC55-4C7552DA69B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="170">
   <si>
     <t>Complemento</t>
   </si>
@@ -51,12 +51,6 @@
   </si>
   <si>
     <t>S010004</t>
-  </si>
-  <si>
-    <t>ALCOOL GEL - 500 ML</t>
-  </si>
-  <si>
-    <t>S010061</t>
   </si>
   <si>
     <t>BOBINA IMPRESSORA FISCAL PADRONIZADO - 80x40M</t>
@@ -662,16 +656,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -1003,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D59"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1033,13 +1018,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1047,10 +1032,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1061,58 +1046,58 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="4">
-        <v>53</v>
+        <v>97</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>165</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
-        <v>1208</v>
+        <v>809</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1120,13 +1105,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4">
-        <v>809</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1134,55 +1119,55 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="4">
-        <v>1046</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="4">
-        <v>103</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1190,41 +1175,41 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>101</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1232,83 +1217,83 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>101</v>
+        <v>23</v>
+      </c>
+      <c r="D20" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="D21" s="4">
-        <v>52</v>
+        <v>904</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,167 +1301,167 @@
         <v>91</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="4">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4">
-        <v>903</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="4">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="D25" s="4">
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4">
-        <v>103</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D27" s="4">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D28" s="4">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4">
-        <v>1179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>110</v>
+        <v>30</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="4">
-        <v>1162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1484,13 +1469,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1498,69 +1483,69 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="D38" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="D39" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1568,69 +1553,69 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="4">
-        <v>167</v>
+        <v>110</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>101</v>
+        <v>131</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="D43" s="4">
-        <v>1</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1638,7 +1623,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1652,24 +1637,24 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D46" s="4">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1677,30 +1662,30 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>95</v>
+        <v>151</v>
       </c>
       <c r="D48" s="4">
-        <v>1</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="D49" s="4">
-        <v>1164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1708,13 +1693,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D50" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1722,27 +1707,27 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D51" s="4">
-        <v>1</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,55 +1735,55 @@
         <v>162</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="D55" s="4">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="4">
-        <v>2</v>
+        <v>55</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,10 +1791,10 @@
         <v>113</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>114</v>
@@ -1817,58 +1802,58 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>116</v>
+        <v>169</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1181</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="D59" s="4">
-        <v>1181</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="D60" s="4">
-        <v>211</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4">
-        <v>1167</v>
+        <v>820</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,27 +1861,27 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D62" s="4">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D63" s="4">
-        <v>819</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1904,13 +1889,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D64" s="4">
-        <v>553</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1918,13 +1903,13 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D65" s="4">
-        <v>395</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,181 +1917,181 @@
         <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D67" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D68" s="4">
-        <v>88</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D69" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="4">
-        <v>54</v>
+        <v>994</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D71" s="4">
-        <v>994</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="4">
-        <v>695</v>
+        <v>119</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="4">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>101</v>
+        <v>76</v>
+      </c>
+      <c r="D76" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>136</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="D77" s="4">
-        <v>107</v>
+        <v>986</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="D78" s="4">
-        <v>986</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,97 +2099,97 @@
         <v>79</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D79" s="4">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
-        <v>163</v>
+        <v>799</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D81" s="4">
-        <v>799</v>
+        <v>160</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D82" s="4">
-        <v>160</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D83" s="4">
-        <v>569</v>
+        <v>762</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D84" s="4">
-        <v>762</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="4">
-        <v>211</v>
+        <v>126</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2212,90 +2197,71 @@
         <v>127</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>128</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D88" s="4">
-        <v>1</v>
+        <v>144</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D90" s="5">
+        <v>129</v>
+      </c>
+      <c r="D89" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D63" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
-      <sortCondition ref="A1:A63"/>
+  <autoFilter ref="A1:D62" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
+      <sortCondition ref="A1:A62"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="25">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D58 A60:D90">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D89">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59:D59">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668D848E-499F-4465-BC55-4C7552DA69B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8806552-457F-48CD-87AD-EBBC2E162BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
   <si>
     <t>Complemento</t>
   </si>
@@ -240,12 +240,6 @@
   </si>
   <si>
     <t>S020025</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 30MM</t>
-  </si>
-  <si>
-    <t>PASTA PLASTICA C/ ELASTICO - 55MM</t>
   </si>
   <si>
     <t>S200035</t>
@@ -988,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1018,13 +1012,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1032,10 +1026,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1046,13 +1040,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D4" s="4">
         <v>53</v>
@@ -1060,27 +1054,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1091,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1105,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1119,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1133,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1147,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1161,7 +1155,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1175,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1186,16 +1180,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,7 +1197,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1217,7 +1211,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1228,10 +1222,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1245,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1256,16 +1250,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,7 +1267,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1284,13 +1278,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="4">
         <v>904</v>
@@ -1298,13 +1292,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="4">
         <v>903</v>
@@ -1315,7 +1309,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1326,13 +1320,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1343,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1354,13 +1348,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1368,13 +1362,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1382,13 +1376,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1396,13 +1390,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" s="4">
         <v>1179</v>
@@ -1413,7 +1407,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1424,24 +1418,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1455,7 +1449,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1469,7 +1463,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1483,7 +1477,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>34</v>
@@ -1497,7 +1491,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1511,7 +1505,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
@@ -1522,13 +1516,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1539,7 +1533,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
@@ -1553,7 +1547,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1564,27 +1558,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1592,10 +1586,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1609,7 +1603,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1623,7 +1617,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1637,7 +1631,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1648,13 +1642,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1662,13 +1656,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="4">
         <v>1164</v>
@@ -1679,7 +1673,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>49</v>
@@ -1693,7 +1687,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>51</v>
@@ -1707,7 +1701,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1718,13 +1712,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1732,13 +1726,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1746,13 +1740,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D54" s="4">
         <v>31</v>
@@ -1763,7 +1757,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>55</v>
@@ -1774,41 +1768,41 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D58" s="4">
         <v>1181</v>
@@ -1819,7 +1813,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1830,13 +1824,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1847,7 +1841,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>59</v>
@@ -1861,7 +1855,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>59</v>
@@ -1875,7 +1869,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>62</v>
@@ -1889,7 +1883,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>64</v>
@@ -1903,7 +1897,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>66</v>
@@ -1914,86 +1908,86 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D66" s="4">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D67" s="4">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D68" s="4">
-        <v>55</v>
+        <v>994</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D69" s="4">
-        <v>54</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D70" s="4">
-        <v>994</v>
+        <v>117</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D71" s="4">
-        <v>695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,55 +1995,55 @@
         <v>118</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>119</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D73" s="4">
-        <v>1</v>
+        <v>122</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
+      </c>
+      <c r="D74" s="4">
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
+      </c>
+      <c r="D75" s="4">
+        <v>986</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2057,55 +2051,55 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D76" s="4">
-        <v>107</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="D77" s="4">
-        <v>986</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D78" s="4">
-        <v>170</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D79" s="4">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2113,27 +2107,27 @@
         <v>80</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D80" s="4">
-        <v>799</v>
+        <v>569</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D81" s="4">
-        <v>160</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2141,110 +2135,82 @@
         <v>82</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D82" s="4">
-        <v>569</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D83" s="4">
-        <v>762</v>
+        <v>124</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" s="4">
-        <v>211</v>
+        <v>126</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D87" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D89" s="5">
+        <v>127</v>
+      </c>
+      <c r="D87" s="5">
         <v>1</v>
       </c>
     </row>
@@ -2259,7 +2225,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D89">
+  <conditionalFormatting sqref="A2:D87">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8806552-457F-48CD-87AD-EBBC2E162BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD39C7-97E4-433B-AAE3-3DCF3D89D7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
   <si>
     <t>Complemento</t>
   </si>
@@ -224,9 +224,6 @@
     <t>PAPEL A4 - BRANCO 500FLS - BRANCO 500FLS</t>
   </si>
   <si>
-    <t>PAPEL HIGIENICO - 300MT</t>
-  </si>
-  <si>
     <t>S010056</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
     <t>PC</t>
   </si>
   <si>
-    <t>PC C/8</t>
-  </si>
-  <si>
     <t>PC C/100</t>
   </si>
   <si>
@@ -543,6 +537,9 @@
   </si>
   <si>
     <t>S080026</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO - 300MT PC C/8</t>
   </si>
 </sst>
 </file>
@@ -650,7 +647,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color rgb="FF0070C0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -985,7 +991,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:XFD66"/>
+      <selection activeCell="A63" sqref="A63:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1012,13 +1018,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1026,10 +1032,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1040,13 +1046,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D4" s="4">
         <v>53</v>
@@ -1054,27 +1060,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1085,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1099,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1113,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1127,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1141,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1155,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1169,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1180,16 +1186,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1197,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1211,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1222,10 +1228,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1239,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1250,16 +1256,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1267,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1278,13 +1284,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D21" s="4">
         <v>904</v>
@@ -1292,13 +1298,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="4">
         <v>903</v>
@@ -1309,7 +1315,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1320,13 +1326,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1337,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1348,13 +1354,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1362,13 +1368,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1376,13 +1382,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1390,13 +1396,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D29" s="4">
         <v>1179</v>
@@ -1407,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1418,24 +1424,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1449,7 +1455,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1463,7 +1469,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1477,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>34</v>
@@ -1491,7 +1497,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1505,7 +1511,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
@@ -1516,13 +1522,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1533,7 +1539,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
@@ -1547,7 +1553,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1558,27 +1564,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1586,10 +1592,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1603,7 +1609,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1617,7 +1623,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -1631,7 +1637,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>47</v>
@@ -1642,13 +1648,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1656,13 +1662,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D48" s="4">
         <v>1164</v>
@@ -1673,7 +1679,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>49</v>
@@ -1687,7 +1693,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>51</v>
@@ -1701,7 +1707,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>53</v>
@@ -1712,13 +1718,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1726,13 +1732,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1740,13 +1746,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D54" s="4">
         <v>31</v>
@@ -1757,7 +1763,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>55</v>
@@ -1768,41 +1774,41 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="4">
         <v>1181</v>
@@ -1813,7 +1819,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>57</v>
@@ -1824,13 +1830,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1841,7 +1847,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>59</v>
@@ -1855,7 +1861,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>59</v>
@@ -1866,27 +1872,27 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D63" s="4">
-        <v>553</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="D64" s="4">
         <v>395</v>
@@ -1894,13 +1900,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="D65" s="4">
         <v>86</v>
@@ -1908,13 +1914,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="4">
         <v>55</v>
@@ -1922,13 +1928,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67" s="4">
         <v>54</v>
@@ -1936,13 +1942,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="4">
         <v>994</v>
@@ -1950,13 +1956,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D69" s="4">
         <v>695</v>
@@ -1964,27 +1970,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -1992,41 +1998,41 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>119</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D74" s="4">
         <v>107</v>
@@ -2034,13 +2040,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D75" s="4">
         <v>986</v>
@@ -2048,13 +2054,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D76" s="4">
         <v>170</v>
@@ -2062,13 +2068,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="4">
         <v>163</v>
@@ -2076,13 +2082,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" s="4">
         <v>799</v>
@@ -2090,13 +2096,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="4">
         <v>160</v>
@@ -2104,13 +2110,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
         <v>569</v>
@@ -2118,13 +2124,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="4">
         <v>762</v>
@@ -2132,13 +2138,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2146,41 +2152,41 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2188,27 +2194,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>141</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D87" s="5">
         <v>1</v>
@@ -2221,13 +2227,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="1" priority="25">
+    <cfRule type="expression" dxfId="2" priority="26">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D87">
+  <conditionalFormatting sqref="A2:D62 A64:D87">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A63:D63">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
+      <formula>LEN(TRIM(A63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FD39C7-97E4-433B-AAE3-3DCF3D89D7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FBDE5D-EF9F-4C6B-A802-57950697535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>S020056</t>
   </si>
   <si>
-    <t>GRAMPO - 26/6 - 26/6</t>
-  </si>
-  <si>
     <t>S020057</t>
   </si>
   <si>
@@ -540,6 +537,9 @@
   </si>
   <si>
     <t>PAPEL HIGIENICO - 300MT PC C/8</t>
+  </si>
+  <si>
+    <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
   </si>
 </sst>
 </file>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:D63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D4" s="4">
         <v>53</v>
@@ -1060,27 +1060,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1091,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1105,7 +1105,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1133,7 +1133,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1147,7 +1147,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1161,7 +1161,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1175,7 +1175,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>16</v>
@@ -1186,16 +1186,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="D14" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,7 +1203,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>18</v>
@@ -1217,7 +1217,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
@@ -1245,7 +1245,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>21</v>
@@ -1256,16 +1256,16 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>23</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="D21" s="4">
         <v>904</v>
@@ -1298,13 +1298,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D22" s="4">
         <v>903</v>
@@ -1315,7 +1315,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>27</v>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1368,13 +1368,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1396,13 +1396,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D29" s="4">
         <v>1179</v>
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>29</v>
@@ -1424,24 +1424,24 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>30</v>
@@ -1455,7 +1455,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>32</v>
@@ -1469,7 +1469,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>34</v>
@@ -1483,7 +1483,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>34</v>
@@ -1497,7 +1497,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>34</v>
@@ -1511,7 +1511,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>34</v>
@@ -1522,13 +1522,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1539,7 +1539,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>39</v>
@@ -1553,7 +1553,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>39</v>
@@ -1564,27 +1564,27 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="D41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -1592,10 +1592,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>41</v>
@@ -1609,7 +1609,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>43</v>
@@ -1620,27 +1620,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -1648,13 +1648,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -1662,13 +1662,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="D48" s="4">
         <v>1164</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D49" s="4">
         <v>40</v>
@@ -1690,13 +1690,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -1704,13 +1704,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D51" s="4">
         <v>745</v>
@@ -1718,13 +1718,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1732,13 +1732,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1746,13 +1746,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D54" s="4">
         <v>31</v>
@@ -1760,13 +1760,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
@@ -1774,41 +1774,41 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D58" s="4">
         <v>1181</v>
@@ -1816,13 +1816,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D59" s="4">
         <v>211</v>
@@ -1830,13 +1830,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1844,13 +1844,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="D61" s="4">
         <v>820</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D62" s="4">
         <v>819</v>
@@ -1872,13 +1872,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" s="4">
         <v>1394</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D64" s="4">
         <v>395</v>
@@ -1900,13 +1900,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="D65" s="4">
         <v>86</v>
@@ -1914,13 +1914,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66" s="4">
         <v>55</v>
@@ -1928,13 +1928,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="4">
         <v>54</v>
@@ -1942,13 +1942,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68" s="4">
         <v>994</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="D69" s="4">
         <v>695</v>
@@ -1970,27 +1970,27 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -1998,41 +1998,41 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D74" s="4">
         <v>107</v>
@@ -2040,13 +2040,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="4">
         <v>986</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="D76" s="4">
         <v>170</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="4">
         <v>163</v>
@@ -2082,13 +2082,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="4">
         <v>799</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="4">
         <v>160</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" s="4">
         <v>569</v>
@@ -2124,13 +2124,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D81" s="4">
         <v>762</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2152,41 +2152,41 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2194,27 +2194,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C86" s="4" t="s">
+      <c r="D86" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D87" s="5">
         <v>1</v>
@@ -2227,18 +2227,18 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="26">
+    <cfRule type="expression" dxfId="2" priority="27">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D62 A64:D87">
+  <conditionalFormatting sqref="A2:D44 A46:D87">
     <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D63">
+  <conditionalFormatting sqref="A45:D45">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
+      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose.martins\Documents\GitHub\portal-suprimentos\pages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FBDE5D-EF9F-4C6B-A802-57950697535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DF23A7-74D8-40D0-940C-E68E952B1F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$87</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="161">
   <si>
     <t>Complemento</t>
   </si>
@@ -86,9 +86,6 @@
     <t>S020082</t>
   </si>
   <si>
-    <t>CALCULADORA PORTATIL - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020083</t>
   </si>
   <si>
@@ -101,9 +98,6 @@
     <t>CANETA ESFEROGRAFICA ESC. FINA - PRETO</t>
   </si>
   <si>
-    <t>CLIPE 2/0 COM 100UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020087</t>
   </si>
   <si>
@@ -125,18 +119,12 @@
     <t>S010013</t>
   </si>
   <si>
-    <t>EMBALAGEM PARA PRESENTE - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050018</t>
   </si>
   <si>
     <t>S010018</t>
   </si>
   <si>
-    <t>ESTILETE C/ LAMINA 18MM - LARGA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020046</t>
   </si>
   <si>
@@ -176,9 +164,6 @@
     <t>S020057</t>
   </si>
   <si>
-    <t>LACRE DE SEGURANÇA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S050012</t>
   </si>
   <si>
@@ -188,9 +173,6 @@
     <t>S020062</t>
   </si>
   <si>
-    <t>LIVRO ATA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020063</t>
   </si>
   <si>
@@ -248,9 +230,6 @@
     <t>PORTA ETIQUETA - 60CM</t>
   </si>
   <si>
-    <t>PROTOCOLO DE CORRESPONDENCIA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020038</t>
   </si>
   <si>
@@ -305,9 +284,6 @@
     <t>COLETOR PERFURO-CORTANTE - 7LTS</t>
   </si>
   <si>
-    <t>LANCETAS - UNICA</t>
-  </si>
-  <si>
     <t>S150191</t>
   </si>
   <si>
@@ -323,24 +299,9 @@
     <t>S020071</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>CANETA DETECTA DINHEIRO FALSO - UNICA</t>
-  </si>
-  <si>
-    <t>S150295</t>
-  </si>
-  <si>
     <t>CANETA ESFEROGRAFICA ESC. FINA - VERMELHO</t>
   </si>
   <si>
-    <t>CLIPE 6/0 COM 50 UND - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>S020089</t>
   </si>
   <si>
@@ -353,27 +314,15 @@
     <t>S020041</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FITA DUPLA FACE - UNICA</t>
-  </si>
-  <si>
     <t>S230009</t>
   </si>
   <si>
     <t>MARCADOR QUADRO BRANCO - PRETO - PRETO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>MARCADOR QUADRO BRANCO - VERMELHO - VERMELHO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>S010038</t>
   </si>
   <si>
@@ -383,9 +332,6 @@
     <t>PILHA - AAA</t>
   </si>
   <si>
-    <t>PRANCHETA A4 - UNICA</t>
-  </si>
-  <si>
     <t>S020036</t>
   </si>
   <si>
@@ -395,18 +341,9 @@
     <t>S020107</t>
   </si>
   <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>QUADRO DE AVISO - UNICA</t>
-  </si>
-  <si>
     <t>S020118</t>
   </si>
   <si>
-    <t>TESOURA ESCOLAR - UNICA</t>
-  </si>
-  <si>
     <t>S020007</t>
   </si>
   <si>
@@ -419,9 +356,6 @@
     <t>S110037</t>
   </si>
   <si>
-    <t>FITILHO COMUM RECICLADO (BARBANTE)</t>
-  </si>
-  <si>
     <t>S050008</t>
   </si>
   <si>
@@ -449,9 +383,6 @@
     <t>SACOLA PLASTICA - 25X30</t>
   </si>
   <si>
-    <t>CURATIVO ADESIVO EM DISCO - UNICA</t>
-  </si>
-  <si>
     <t>S150189</t>
   </si>
   <si>
@@ -464,9 +395,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>VASSOURA DE PIASSAVA - UNICA - UNICA</t>
-  </si>
-  <si>
     <t>FILME PVC PLASTICO - 300 M</t>
   </si>
   <si>
@@ -527,9 +455,6 @@
     <t>SACO P/ LIXO INFECTANTE - 50L</t>
   </si>
   <si>
-    <t>TIRA P/ TESTE DE GLICEMIA - UNICA</t>
-  </si>
-  <si>
     <t>MASCARA DESCARTAVEL - TNT</t>
   </si>
   <si>
@@ -540,6 +465,63 @@
   </si>
   <si>
     <t>GRAMPO 26/6 P/ GRAMPEADOR - 5000UN</t>
+  </si>
+  <si>
+    <t>CALCULADORA PORTATIL - 12 DIGITOS</t>
+  </si>
+  <si>
+    <t>CANETA DETECTA DINHEIRO FALSO - LUMINOSA - LUMINOSA</t>
+  </si>
+  <si>
+    <t>S020133</t>
+  </si>
+  <si>
+    <t>CLIPE 2/0 - 100UND</t>
+  </si>
+  <si>
+    <t>CLIPE 6/0 - 50 UND</t>
+  </si>
+  <si>
+    <t>CURATIVO ADESIVO EM DISCO - 500 UND</t>
+  </si>
+  <si>
+    <t>SACOLA DE PAPEL PERSONALIZADA - 22X25</t>
+  </si>
+  <si>
+    <t>ESTILETE C/ LAMINA - LARGA - 18MM</t>
+  </si>
+  <si>
+    <t>FITA DUPLA FACE - 19mm x 3m</t>
+  </si>
+  <si>
+    <t>FITILHO COMUM RECICLADO (BARBANTE) - 1000M</t>
+  </si>
+  <si>
+    <t>LACRE DE SEGURANÇA PERSONALIZADO - 16CM</t>
+  </si>
+  <si>
+    <t>LANCETAS - 100UN - 100UN</t>
+  </si>
+  <si>
+    <t>LIVRO ATA - 100FLS</t>
+  </si>
+  <si>
+    <t>PRANCHETA A4 - MDF A4</t>
+  </si>
+  <si>
+    <t>PROTOCOLO DE CORRESPONDENCIA - 96 FLS</t>
+  </si>
+  <si>
+    <t>QUADRO DE AVISO - 90X60CM - 90X60CM</t>
+  </si>
+  <si>
+    <t>TESOURA ESCOLAR - 4"</t>
+  </si>
+  <si>
+    <t>TIRA P/ TESTE DE GLICEMIA - BIOLAND</t>
+  </si>
+  <si>
+    <t>VASSOURA - PIASSAVA - PIASSAVA</t>
   </si>
 </sst>
 </file>
@@ -647,16 +629,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Ruim" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color rgb="FF0070C0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <border>
         <bottom style="thin">
@@ -990,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:D45"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G85" sqref="G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1018,13 +991,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D2" s="5">
         <v>0.5</v>
@@ -1032,10 +1005,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
@@ -1046,13 +1019,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4">
         <v>53</v>
@@ -1060,27 +1033,27 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1091,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
@@ -1105,7 +1078,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1119,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1133,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>11</v>
@@ -1147,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>11</v>
@@ -1161,7 +1134,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1172,41 +1145,41 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="D13" s="4">
-        <v>1</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>95</v>
+        <v>144</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1184</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -1214,13 +1187,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
@@ -1228,13 +1201,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
@@ -1242,41 +1215,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="4">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
+      </c>
+      <c r="D19" s="5">
+        <v>916</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="4">
         <v>52</v>
@@ -1284,13 +1257,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4">
         <v>904</v>
@@ -1298,13 +1271,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D22" s="4">
         <v>903</v>
@@ -1312,13 +1285,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="4">
         <v>101</v>
@@ -1326,27 +1299,27 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D24" s="5">
-        <v>1</v>
+        <v>874</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="4">
         <v>103</v>
@@ -1354,13 +1327,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D26" s="4">
         <v>1176</v>
@@ -1368,13 +1341,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D27" s="4">
         <v>1177</v>
@@ -1382,13 +1355,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D28" s="4">
         <v>1178</v>
@@ -1396,13 +1369,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D29" s="4">
         <v>1179</v>
@@ -1410,41 +1383,41 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4">
-        <v>1</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="D31" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D32" s="4">
         <v>1162</v>
@@ -1452,27 +1425,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="4">
-        <v>1</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4">
         <v>899</v>
@@ -1480,13 +1453,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D35" s="4">
         <v>896</v>
@@ -1494,13 +1467,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36" s="4">
         <v>900</v>
@@ -1508,13 +1481,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D37" s="4">
         <v>898</v>
@@ -1522,13 +1495,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D38" s="4">
         <v>750</v>
@@ -1536,13 +1509,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D39" s="4">
         <v>166</v>
@@ -1550,13 +1523,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4">
         <v>167</v>
@@ -1564,41 +1537,41 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="D41" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D42" s="4">
-        <v>1</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D43" s="4">
         <v>448</v>
@@ -1606,13 +1579,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4">
         <v>80</v>
@@ -1620,13 +1593,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D45" s="4">
         <v>1396</v>
@@ -1634,41 +1607,41 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
+        <v>81</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D48" s="4">
         <v>1164</v>
@@ -1676,13 +1649,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D49" s="4">
         <v>40</v>
@@ -1690,27 +1663,27 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>154</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D51" s="4">
         <v>745</v>
@@ -1718,13 +1691,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1732,13 +1705,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1746,13 +1719,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D54" s="4">
         <v>31</v>
@@ -1760,13 +1733,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D55" s="4">
         <v>2</v>
@@ -1774,41 +1747,41 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>108</v>
+        <v>48</v>
+      </c>
+      <c r="D56" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>110</v>
+        <v>48</v>
+      </c>
+      <c r="D57" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="D58" s="4">
         <v>1181</v>
@@ -1816,13 +1789,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D59" s="4">
         <v>211</v>
@@ -1830,13 +1803,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D60" s="4">
         <v>1167</v>
@@ -1844,13 +1817,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D61" s="4">
         <v>820</v>
@@ -1858,13 +1831,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D62" s="4">
         <v>819</v>
@@ -1872,13 +1845,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D63" s="4">
         <v>1394</v>
@@ -1886,13 +1859,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D64" s="4">
         <v>395</v>
@@ -1900,13 +1873,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D65" s="4">
         <v>86</v>
@@ -1914,13 +1887,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D66" s="4">
         <v>55</v>
@@ -1928,13 +1901,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D67" s="4">
         <v>54</v>
@@ -1942,13 +1915,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D68" s="4">
         <v>994</v>
@@ -1956,13 +1929,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D69" s="4">
         <v>695</v>
@@ -1970,69 +1943,69 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D71" s="4">
-        <v>1</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
+      </c>
+      <c r="D72" s="5">
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D74" s="4">
         <v>107</v>
@@ -2040,13 +2013,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D75" s="4">
         <v>986</v>
@@ -2054,13 +2027,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D76" s="4">
         <v>170</v>
@@ -2068,13 +2041,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D77" s="4">
         <v>163</v>
@@ -2082,13 +2055,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D78" s="4">
         <v>799</v>
@@ -2096,13 +2069,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D79" s="4">
         <v>160</v>
@@ -2110,13 +2083,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D80" s="4">
         <v>569</v>
@@ -2124,13 +2097,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D81" s="4">
         <v>762</v>
@@ -2138,13 +2111,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D82" s="4">
         <v>211</v>
@@ -2152,93 +2125,88 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="D83" s="5">
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="D84" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D85" s="4">
-        <v>1</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="D87" s="5">
-        <v>1</v>
+        <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D62" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+  <autoFilter ref="A1:D87" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
       <sortCondition ref="A1:A62"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D44 A46:D87">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A2:D87">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:D45">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DF23A7-74D8-40D0-940C-E68E952B1F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74591CB-DE57-479A-B5A6-BF69ACFD3B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -431,9 +431,6 @@
     <t>PANO DE PRATO - 50X75CM</t>
   </si>
   <si>
-    <t>AGULHA 12X40MM - 100UN</t>
-  </si>
-  <si>
     <t>LUVA PROCEDIMENTO DESCARTAVEL - TAM.G - TAM.G</t>
   </si>
   <si>
@@ -522,6 +519,9 @@
   </si>
   <si>
     <t>VASSOURA - PIASSAVA - PIASSAVA</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 40X1,20MM</t>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>107</v>
@@ -1000,7 +1000,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="5">
-        <v>0.5</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1047,13 +1047,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D6" s="4">
         <v>1208</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>108</v>
@@ -1159,13 +1159,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="D14" s="5">
         <v>1184</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>107</v>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>107</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>108</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>108</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>108</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>108</v>
@@ -1593,7 +1593,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>107</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>108</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>107</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>108</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D52" s="4">
         <v>33</v>
@@ -1705,13 +1705,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D53" s="4">
         <v>32</v>
@@ -1719,13 +1719,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D54" s="4">
         <v>31</v>
@@ -1775,13 +1775,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D58" s="4">
         <v>1181</v>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>110</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>108</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>108</v>
@@ -1985,7 +1985,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>108</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>110</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>108</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>107</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>108</v>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74591CB-DE57-479A-B5A6-BF69ACFD3B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B76308C-6BDD-475D-A0B9-07608A86AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -963,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1336,7 @@
         <v>88</v>
       </c>
       <c r="D26" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1350,7 +1350,7 @@
         <v>88</v>
       </c>
       <c r="D27" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>88</v>
       </c>
       <c r="D28" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>88</v>
       </c>
       <c r="D29" s="4">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B76308C-6BDD-475D-A0B9-07608A86AA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B683CC-3578-43F9-A65F-C8B64D28A133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
   <si>
     <t>Complemento</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 40X1,20MM</t>
+  </si>
+  <si>
+    <t>AGULHA IM - CALIBRE 0,6X25MM</t>
   </si>
 </sst>
 </file>
@@ -961,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,119 +1008,119 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4">
-        <v>105</v>
+        <v>77</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1443</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="D4" s="4">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
+        <v>76</v>
+      </c>
+      <c r="D5" s="4">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1208</v>
+        <v>85</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="D7" s="4">
-        <v>809</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
-        <v>1046</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4">
-        <v>103</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="4">
-        <v>33</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>108</v>
@@ -1126,68 +1129,68 @@
         <v>11</v>
       </c>
       <c r="D11" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>141</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="4">
-        <v>1453</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1184</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1453</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1184</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>108</v>
@@ -1196,12 +1199,12 @@
         <v>17</v>
       </c>
       <c r="D16" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>108</v>
@@ -1210,68 +1213,68 @@
         <v>17</v>
       </c>
       <c r="D17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>17</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="5">
-        <v>916</v>
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="4">
-        <v>52</v>
+        <v>87</v>
+      </c>
+      <c r="D20" s="5">
+        <v>916</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="D21" s="4">
-        <v>904</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>108</v>
@@ -1280,68 +1283,68 @@
         <v>79</v>
       </c>
       <c r="D22" s="4">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4">
-        <v>101</v>
+        <v>903</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="5">
-        <v>874</v>
+        <v>23</v>
+      </c>
+      <c r="D24" s="4">
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="4">
-        <v>103</v>
+        <v>114</v>
+      </c>
+      <c r="D25" s="5">
+        <v>874</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4">
-        <v>1175</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>108</v>
@@ -1350,12 +1353,12 @@
         <v>88</v>
       </c>
       <c r="D27" s="4">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>108</v>
@@ -1364,12 +1367,12 @@
         <v>88</v>
       </c>
       <c r="D28" s="4">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>108</v>
@@ -1378,82 +1381,82 @@
         <v>88</v>
       </c>
       <c r="D29" s="4">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4">
-        <v>1436</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="5">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1436</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1162</v>
+        <v>90</v>
+      </c>
+      <c r="D32" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4">
-        <v>1455</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>29</v>
+        <v>148</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D34" s="4">
-        <v>899</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>108</v>
@@ -1462,12 +1465,12 @@
         <v>30</v>
       </c>
       <c r="D35" s="4">
-        <v>896</v>
+        <v>899</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>108</v>
@@ -1476,12 +1479,12 @@
         <v>30</v>
       </c>
       <c r="D36" s="4">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>108</v>
@@ -1490,40 +1493,40 @@
         <v>30</v>
       </c>
       <c r="D37" s="4">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="D38" s="4">
-        <v>750</v>
+        <v>898</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D39" s="4">
-        <v>166</v>
+        <v>750</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>108</v>
@@ -1532,180 +1535,180 @@
         <v>35</v>
       </c>
       <c r="D40" s="4">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="5">
-        <v>272</v>
+        <v>35</v>
+      </c>
+      <c r="D41" s="4">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" s="4">
-        <v>1157</v>
+        <v>91</v>
+      </c>
+      <c r="D42" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="D43" s="4">
-        <v>448</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D44" s="4">
-        <v>80</v>
+        <v>448</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="4">
-        <v>1396</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" s="4">
-        <v>1416</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>117</v>
+        <v>41</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1416</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="4">
-        <v>1164</v>
+        <v>81</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D49" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="4">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D51" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="D52" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>108</v>
@@ -1714,12 +1717,12 @@
         <v>131</v>
       </c>
       <c r="D53" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>108</v>
@@ -1728,26 +1731,26 @@
         <v>131</v>
       </c>
       <c r="D54" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>108</v>
@@ -1755,13 +1758,13 @@
       <c r="C56" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="5">
-        <v>3</v>
+      <c r="D56" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>108</v>
@@ -1770,68 +1773,68 @@
         <v>48</v>
       </c>
       <c r="D57" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="4">
-        <v>1181</v>
+        <v>48</v>
+      </c>
+      <c r="D58" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D59" s="4">
-        <v>211</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D60" s="4">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D61" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>110</v>
@@ -1840,68 +1843,68 @@
         <v>52</v>
       </c>
       <c r="D62" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D63" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D64" s="4">
-        <v>395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D65" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>108</v>
@@ -1910,26 +1913,26 @@
         <v>59</v>
       </c>
       <c r="D67" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D68" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>108</v>
@@ -1938,124 +1941,124 @@
         <v>61</v>
       </c>
       <c r="D69" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D70" s="5">
-        <v>1457</v>
+        <v>61</v>
+      </c>
+      <c r="D70" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1182</v>
+        <v>97</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D72" s="5">
-        <v>574</v>
+        <v>63</v>
+      </c>
+      <c r="D72" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D73" s="5">
-        <v>1030</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="4">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D75" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D76" s="4">
-        <v>170</v>
+        <v>986</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D77" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>108</v>
@@ -2064,26 +2067,26 @@
         <v>67</v>
       </c>
       <c r="D78" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D79" s="4">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>112</v>
@@ -2092,12 +2095,12 @@
         <v>70</v>
       </c>
       <c r="D80" s="4">
-        <v>569</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>112</v>
@@ -2106,97 +2109,111 @@
         <v>70</v>
       </c>
       <c r="D81" s="4">
-        <v>762</v>
+        <v>569</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D82" s="4">
-        <v>211</v>
+        <v>762</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D83" s="5">
-        <v>202</v>
+        <v>74</v>
+      </c>
+      <c r="D83" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D84" s="5">
-        <v>2</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" s="4">
-        <v>1419</v>
+        <v>103</v>
+      </c>
+      <c r="D85" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>117</v>
+        <v>83</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1419</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C87" s="4" t="s">
+      <c r="B88" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D88" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D87" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
-      <sortCondition ref="A1:A62"/>
+  <autoFilter ref="A1:D88" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
+      <sortCondition ref="A1:A63"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2204,7 +2221,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D87">
+  <conditionalFormatting sqref="A2:D88">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>

--- a/pages/RN_csoservi_cservico_ssala.xlsx
+++ b/pages/RN_csoservi_cservico_ssala.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.viana\Documents\GitHub\portal-suprimentos\pages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B683CC-3578-43F9-A65F-C8B64D28A133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A118DA6-5782-4648-AD6B-DDC9F8DC4E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5CA32051-C01C-4638-87CD-6EC0FE7C721B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="164">
   <si>
     <t>Complemento</t>
   </si>
@@ -525,6 +525,12 @@
   </si>
   <si>
     <t>AGULHA IM - CALIBRE 0,6X25MM</t>
+  </si>
+  <si>
+    <t>ISOPOR - 3L - 3L</t>
+  </si>
+  <si>
+    <t>S050011</t>
   </si>
 </sst>
 </file>
@@ -964,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,7 +1000,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>107</v>
@@ -1003,12 +1009,12 @@
         <v>77</v>
       </c>
       <c r="D2" s="5">
-        <v>1505</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>107</v>
@@ -1017,7 +1023,7 @@
         <v>77</v>
       </c>
       <c r="D3" s="5">
-        <v>1443</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1400,63 +1406,63 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="4">
-        <v>1436</v>
+        <v>90</v>
+      </c>
+      <c r="D31" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="5">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" s="4">
-        <v>1162</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4">
-        <v>1455</v>
+        <v>899</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>108</v>
@@ -1465,12 +1471,12 @@
         <v>30</v>
       </c>
       <c r="D35" s="4">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>108</v>
@@ -1479,12 +1485,12 @@
         <v>30</v>
       </c>
       <c r="D36" s="4">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>108</v>
@@ -1493,40 +1499,40 @@
         <v>30</v>
       </c>
       <c r="D37" s="4">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="D38" s="4">
-        <v>898</v>
+        <v>750</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="D39" s="4">
-        <v>750</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>108</v>
@@ -1535,194 +1541,194 @@
         <v>35</v>
       </c>
       <c r="D40" s="4">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="4">
-        <v>167</v>
+        <v>91</v>
+      </c>
+      <c r="D41" s="5">
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="5">
-        <v>272</v>
+        <v>105</v>
+      </c>
+      <c r="D42" s="4">
+        <v>1157</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="D43" s="4">
-        <v>1157</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D44" s="4">
-        <v>448</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="4">
-        <v>80</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="D46" s="4">
-        <v>1396</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="D47" s="4">
-        <v>1416</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>117</v>
+        <v>41</v>
+      </c>
+      <c r="D48" s="4">
+        <v>1416</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="4">
-        <v>1164</v>
+        <v>81</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="D50" s="4">
-        <v>40</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D51" s="4">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D52" s="4">
-        <v>745</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="D53" s="4">
-        <v>33</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>108</v>
@@ -1731,12 +1737,12 @@
         <v>131</v>
       </c>
       <c r="D54" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>108</v>
@@ -1745,26 +1751,26 @@
         <v>131</v>
       </c>
       <c r="D55" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="D56" s="4">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>108</v>
@@ -1772,13 +1778,13 @@
       <c r="C57" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D57" s="5">
-        <v>3</v>
+      <c r="D57" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>108</v>
@@ -1787,68 +1793,68 @@
         <v>48</v>
       </c>
       <c r="D58" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="4">
-        <v>1181</v>
+        <v>48</v>
+      </c>
+      <c r="D59" s="5">
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="D60" s="4">
-        <v>211</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="D61" s="4">
-        <v>1167</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D62" s="4">
-        <v>820</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>110</v>
@@ -1857,68 +1863,68 @@
         <v>52</v>
       </c>
       <c r="D63" s="4">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D64" s="4">
-        <v>1394</v>
+        <v>819</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D65" s="4">
-        <v>395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D66" s="4">
-        <v>86</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D67" s="4">
-        <v>55</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>108</v>
@@ -1927,26 +1933,26 @@
         <v>59</v>
       </c>
       <c r="D68" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D69" s="4">
-        <v>994</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>108</v>
@@ -1955,124 +1961,124 @@
         <v>61</v>
       </c>
       <c r="D70" s="4">
-        <v>695</v>
+        <v>994</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71" s="5">
-        <v>1457</v>
+        <v>61</v>
+      </c>
+      <c r="D71" s="4">
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="4">
-        <v>1182</v>
+        <v>97</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1457</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>98</v>
+        <v>155</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D73" s="5">
-        <v>574</v>
+        <v>63</v>
+      </c>
+      <c r="D73" s="4">
+        <v>1182</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" s="5">
-        <v>1030</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D75" s="4">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1030</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D76" s="4">
-        <v>986</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D77" s="4">
-        <v>170</v>
+        <v>986</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D78" s="4">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>108</v>
@@ -2081,40 +2087,40 @@
         <v>67</v>
       </c>
       <c r="D79" s="4">
-        <v>799</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D80" s="4">
-        <v>160</v>
+        <v>799</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="D81" s="4">
-        <v>569</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>112</v>
@@ -2123,97 +2129,125 @@
         <v>70</v>
       </c>
       <c r="D82" s="4">
-        <v>762</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D83" s="4">
-        <v>211</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D84" s="5">
-        <v>202</v>
+        <v>70</v>
+      </c>
+      <c r="D84" s="4">
+        <v>762</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D85" s="5">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="D85" s="4">
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="4">
-        <v>1419</v>
+        <v>101</v>
+      </c>
+      <c r="D86" s="5">
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>117</v>
+        <v>103</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C88" s="4" t="s">
+      <c r="B90" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D90" s="5">
         <v>1458</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D88" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D91">
-      <sortCondition ref="A1:A63"/>
+  <autoFilter ref="A1:D90" xr:uid="{AE2321C2-94DB-4D84-9712-B139DA1BF6E3}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D90">
+      <sortCondition ref="A1:A90"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:D1">
@@ -2221,7 +2255,7 @@
       <formula>$E1&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:D88">
+  <conditionalFormatting sqref="A2:D90">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
